--- a/M3-P1/assets/M3.1-Zaccosa-Cascade.xlsx
+++ b/M3-P1/assets/M3.1-Zaccosa-Cascade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\E-Learning_M&amp;E_TB-C-203\MODULE 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C7369-8797-4B56-9C6A-A07D4ABF8091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D9441-8D65-4D02-BE76-AF57F02508C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="677" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS TB Cascade 2022-23" sheetId="5" r:id="rId1"/>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t># of people with DS-TB (all forms) who initiated treatment (TX_DS_ENROLL)</t>
-  </si>
-  <si>
-    <t># of people with DS-TB (all forms) successfully cured or completed  treatment (DS_SUCC)</t>
   </si>
   <si>
     <t>clinincally- diagnosed</t>
@@ -179,10 +176,6 @@
     </r>
   </si>
   <si>
-    <t># of people with DS-TB 
-(all forms) successfully cured or completed  treatment (DS_SUCC)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"># of people with </t>
     </r>
@@ -232,11 +225,6 @@
 (TX_DS_ENROLL)</t>
   </si>
   <si>
-    <t># of people with DS-TB 
-(all forms) successfully cured or completed  treatment
- (DS_SUCC)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"># of people with </t>
     </r>
@@ -265,6 +253,18 @@
   </si>
   <si>
     <t>20% gap of notified who were tested using mWRD</t>
+  </si>
+  <si>
+    <t># of people with DS-TB 
+(all forms) successfully cured or completed  treatment (NEWREL_SUCC)</t>
+  </si>
+  <si>
+    <t># of people with DS-TB 
+(all forms) successfully cured or completed  treatment
+ (NEWREL_SUCC)</t>
+  </si>
+  <si>
+    <t># of people with DS-TB (all forms) successfully cured or completed  treatment (NEWREL_SUCC)</t>
   </si>
 </sst>
 </file>
@@ -614,12 +614,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -662,6 +656,12 @@
     </xf>
     <xf numFmtId="43" fontId="12" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -860,7 +860,7 @@
                   <c:v># of people with DS-TB (all forms) who initiated treatment (TX_DS_ENROLL)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v># of people with DS-TB (all forms) successfully cured or completed  treatment (DS_SUCC)</c:v>
+                  <c:v># of people with DS-TB (all forms) successfully cured or completed  treatment (NEWREL_SUCC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1004,7 +1004,7 @@
                   <c:v># of people with DS-TB (all forms) who initiated treatment (TX_DS_ENROLL)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v># of people with DS-TB (all forms) successfully cured or completed  treatment (DS_SUCC)</c:v>
+                  <c:v># of people with DS-TB (all forms) successfully cured or completed  treatment (NEWREL_SUCC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1382,7 +1382,7 @@
                 <c:pt idx="7">
                   <c:v># of people with DS-TB 
 (all forms) successfully cured or completed  treatment
- (DS_SUCC)</c:v>
+ (NEWREL_SUCC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1706,7 +1706,7 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v># of people with DS-TB 
-(all forms) successfully cured or completed  treatment (DS_SUCC)</c:v>
+(all forms) successfully cured or completed  treatment (NEWREL_SUCC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2318,7 +2318,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>111967</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>150284</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13302407" cy="6003606"/>
@@ -2349,13 +2349,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>868679</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2455,13 +2455,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>106681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1615439</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3609,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3651,17 +3651,17 @@
     </row>
     <row r="2" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="3"/>
@@ -3671,36 +3671,36 @@
     </row>
     <row r="3" spans="1:21" ht="94.5" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>6</v>
+      <c r="J3" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3710,45 +3710,45 @@
     </row>
     <row r="4" spans="1:21" ht="29.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="48">
+      <c r="B4" s="46">
         <v>2022</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <f>10*F4</f>
         <v>104070</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="50">
         <f>C4*75%</f>
         <v>78052.5</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="51">
         <f>D4*75%</f>
         <v>58539.375</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="52">
         <v>10407</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="50">
         <f>D4*10%</f>
         <v>7805.25</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="50">
         <f>F4*80%</f>
         <v>8325.6</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="50">
         <f>F4*90%</f>
         <v>9366.3000000000011</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="50">
         <f>I4*85%</f>
         <v>7961.3550000000005</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -3758,39 +3758,39 @@
     </row>
     <row r="5" spans="1:21" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="48">
+      <c r="B5" s="46">
         <v>2023</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <f>10*F5</f>
         <v>111380</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <f>C5*80%</f>
         <v>89104</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="51">
         <f>D5*75%</f>
         <v>66828</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="53">
         <v>11138</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="50">
         <f>D5*10%</f>
         <v>8910.4</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <f>F5*80%</f>
         <v>8910.4</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -5443,7 +5443,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5471,7 +5471,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H1" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="19">
         <v>2602</v>
@@ -5479,31 +5479,31 @@
     </row>
     <row r="2" spans="1:27" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="9">
         <v>7805</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="B4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -5516,31 +5516,31 @@
       <c r="A5" s="4"/>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="J5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="39" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>31</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>1040700</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="1"/>
@@ -5707,18 +5707,18 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>11</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="21"/>
@@ -7492,10 +7492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7523,7 +7523,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H1" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="19">
         <v>2602</v>
@@ -7531,31 +7531,31 @@
     </row>
     <row r="2" spans="1:27" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="9">
         <v>7805</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="B4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -7568,16 +7568,16 @@
       <c r="A5" s="4"/>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>3</v>
@@ -7586,13 +7586,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>1</v>
@@ -7655,7 +7655,7 @@
         <v>1040700</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="1"/>
@@ -7731,21 +7731,21 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47" t="s">
-        <v>33</v>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="21"/>
@@ -7773,12 +7773,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="3"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -7862,7 +7863,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -7939,18 +7940,17 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="3"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -8062,6 +8062,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -8513,35 +8514,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-    </row>
+    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9506,7 +9479,6 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:L4"/>
